--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542408ED-3146-46B1-9F9E-F78BE969E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3EBA35-A56C-43D6-8DA6-3212A98DBF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1836" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="1908" windowWidth="23040" windowHeight="14088" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23044,10 +23044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/sys/menu/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23498,10 +23494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oauth2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23547,6 +23539,14 @@
   </si>
   <si>
     <t>com.jeesite.modules.cms.web.CmsIndexController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2、新深蓝：skin-blue3、新浅蓝：skin-blue-light3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin-blue3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24185,9 +24185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24285,7 +24285,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
@@ -24293,13 +24293,13 @@
         <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7145</v>
+        <v>7297</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7285</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24361,13 +24361,13 @@
         <v>6262</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24378,13 +24378,13 @@
         <v>6263</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24520,7 +24520,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7293</v>
+        <v>7291</v>
       </c>
     </row>
   </sheetData>
@@ -24655,7 +24655,7 @@
         <v>6183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6184</v>
@@ -25838,7 +25838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -25895,7 +25895,7 @@
         <v>331</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -25907,7 +25907,7 @@
         <v>7133</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>7282</v>
+        <v>7281</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>7134</v>
@@ -25916,46 +25916,46 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7148</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7146</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7149</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7148</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7147</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7150</v>
       </c>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>7278</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7279</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7283</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7280</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7284</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7281</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>7284</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7286</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>7287</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7288</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7289</v>
       </c>
       <c r="E7" s="34"/>
     </row>
@@ -25964,28 +25964,28 @@
         <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>7288</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7289</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7290</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7291</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7292</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7277</v>
+        <v>7276</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>7274</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7282</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>7275</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7283</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7276</v>
       </c>
       <c r="E9" s="34"/>
     </row>
@@ -25994,13 +25994,13 @@
         <v>6113</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>7292</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7293</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>7294</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7295</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7296</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>226</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>214</v>
@@ -26843,13 +26843,13 @@
         <v>6118</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="K24" s="26" t="s">
+        <v>7272</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>7273</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>7274</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>70</v>
@@ -26913,7 +26913,7 @@
         <v>6118</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>6094</v>
@@ -27993,7 +27993,7 @@
         <v>230</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6145</v>
@@ -28005,7 +28005,7 @@
         <v>6118</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>70</v>
@@ -28150,7 +28150,7 @@
         <v>229</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6025</v>
@@ -28162,7 +28162,7 @@
         <v>6118</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>70</v>
@@ -28418,7 +28418,7 @@
         <v>7123</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7278</v>
+        <v>7277</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>70</v>
@@ -32385,7 +32385,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -32691,7 +32691,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -33634,7 +33634,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="B76" t="s">
         <v>3192</v>
@@ -33643,7 +33643,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="E76" t="s">
         <v>3143</v>
@@ -36286,7 +36286,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="B232" t="s">
         <v>3347</v>
@@ -36295,7 +36295,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="E232" t="s">
         <v>3143</v>
@@ -36303,7 +36303,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="B233" t="s">
         <v>3347</v>
@@ -36312,7 +36312,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E233" t="s">
         <v>3143</v>
@@ -36320,7 +36320,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="B234" t="s">
         <v>3347</v>
@@ -36329,7 +36329,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E234" t="s">
         <v>3143</v>
@@ -36558,7 +36558,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="B248" t="s">
         <v>3361</v>
@@ -36567,7 +36567,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="E248" t="s">
         <v>3143</v>
@@ -36575,7 +36575,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="B249" t="s">
         <v>3361</v>
@@ -36584,7 +36584,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="E249" t="s">
         <v>3143</v>
@@ -36592,7 +36592,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="B250" t="s">
         <v>3361</v>
@@ -36601,7 +36601,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="E250" t="s">
         <v>3143</v>
@@ -36609,7 +36609,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="B251" t="s">
         <v>3361</v>
@@ -36618,7 +36618,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="E251" t="s">
         <v>3143</v>
@@ -36983,7 +36983,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="B273" t="s">
         <v>3377</v>
@@ -36992,7 +36992,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="E273" t="s">
         <v>3143</v>
@@ -37128,7 +37128,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="E281" t="s">
         <v>3143</v>
@@ -44650,7 +44650,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="B724" t="s">
         <v>3818</v>
@@ -44659,7 +44659,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="E724" t="s">
         <v>3143</v>
@@ -44667,7 +44667,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="B725" t="s">
         <v>3818</v>
@@ -44676,7 +44676,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E725" t="s">
         <v>3143</v>
@@ -44684,7 +44684,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="B726" t="s">
         <v>3818</v>
@@ -44718,7 +44718,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="B728" t="s">
         <v>3818</v>
@@ -44727,7 +44727,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="E728" t="s">
         <v>3143</v>
@@ -44735,7 +44735,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="B729" t="s">
         <v>3818</v>
@@ -44744,7 +44744,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E729" t="s">
         <v>3143</v>
@@ -44752,7 +44752,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="B730" t="s">
         <v>3818</v>
@@ -44761,7 +44761,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="E730" t="s">
         <v>3143</v>
@@ -44769,7 +44769,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="B731" t="s">
         <v>3818</v>
@@ -44778,7 +44778,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="E731" t="s">
         <v>3143</v>
@@ -44786,7 +44786,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="B732" t="s">
         <v>3818</v>
@@ -44795,7 +44795,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="E732" t="s">
         <v>3143</v>
@@ -45322,7 +45322,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="E763" t="s">
         <v>3143</v>
@@ -45611,7 +45611,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="E780" t="s">
         <v>3143</v>
@@ -45619,7 +45619,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="B781" t="s">
         <v>3864</v>
@@ -46741,7 +46741,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="B847" t="s">
         <v>3917</v>
@@ -46750,7 +46750,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E847" t="s">
         <v>3143</v>
@@ -46962,7 +46962,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="B860" t="s">
         <v>3925</v>
@@ -46971,7 +46971,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="E860" t="s">
         <v>3143</v>
@@ -48050,7 +48050,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="B924" t="s">
         <v>3979</v>
@@ -48509,7 +48509,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="B951" t="s">
         <v>4001</v>
@@ -48518,7 +48518,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E951" t="s">
         <v>3143</v>
@@ -50668,7 +50668,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="B1078" t="s">
         <v>4114</v>
@@ -50677,7 +50677,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="E1078" t="s">
         <v>3143</v>
@@ -51595,7 +51595,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="E1132" t="s">
         <v>3143</v>
@@ -51790,7 +51790,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="B1144" t="s">
         <v>4182</v>
@@ -53711,7 +53711,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="B1257" t="s">
         <v>4294</v>
@@ -53983,7 +53983,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="B1273" t="s">
         <v>4308</v>
@@ -53992,7 +53992,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="E1273" t="s">
         <v>3143</v>
@@ -55343,7 +55343,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="B1353" t="s">
         <v>4377</v>
@@ -55352,7 +55352,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="E1353" t="s">
         <v>3143</v>
@@ -55360,7 +55360,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="B1354" t="s">
         <v>4377</v>
@@ -55369,7 +55369,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="E1354" t="s">
         <v>3143</v>
@@ -55377,7 +55377,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="B1355" t="s">
         <v>4377</v>
@@ -55547,7 +55547,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="B1365" t="s">
         <v>4386</v>
@@ -57426,7 +57426,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="E1475" t="s">
         <v>3143</v>
@@ -57621,7 +57621,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="B1487" t="s">
         <v>4501</v>
@@ -57630,7 +57630,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E1487" t="s">
         <v>3143</v>
@@ -59126,7 +59126,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E1575" t="s">
         <v>3143</v>
@@ -60537,7 +60537,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E1658" t="s">
         <v>3143</v>
@@ -61888,7 +61888,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="B1738" t="s">
         <v>4745</v>
@@ -61897,7 +61897,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="E1738" t="s">
         <v>3143</v>
@@ -62959,7 +62959,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="B1801" t="s">
         <v>4801</v>
@@ -63061,7 +63061,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="B1807" t="s">
         <v>4809</v>
@@ -63070,7 +63070,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="E1807" t="s">
         <v>3143</v>
@@ -63546,7 +63546,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="E1835" t="s">
         <v>3143</v>
@@ -65679,7 +65679,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="B1961" t="s">
         <v>4955</v>
@@ -65688,7 +65688,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="E1961" t="s">
         <v>3143</v>
@@ -68297,7 +68297,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="B2115" t="s">
         <v>5087</v>
@@ -68306,7 +68306,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="E2115" t="s">
         <v>3143</v>
@@ -68986,7 +68986,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E2155" t="s">
         <v>3143</v>
@@ -71714,7 +71714,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B2316" t="s">
         <v>5268</v>
@@ -72182,7 +72182,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="E2343" t="s">
         <v>3143</v>
@@ -72853,7 +72853,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="B2383" t="s">
         <v>5330</v>
@@ -72862,7 +72862,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="E2383" t="s">
         <v>3143</v>
@@ -75471,7 +75471,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="B2537" t="s">
         <v>6555</v>
@@ -75480,7 +75480,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="E2537" t="s">
         <v>3143</v>
@@ -76423,7 +76423,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="B2593" t="s">
         <v>5497</v>
@@ -76432,7 +76432,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="E2593" t="s">
         <v>3143</v>
@@ -77001,7 +77001,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="B2627" t="s">
         <v>5518</v>
@@ -77010,7 +77010,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="E2627" t="s">
         <v>3143</v>
@@ -78650,7 +78650,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="B2724" t="s">
         <v>5613</v>
@@ -78659,7 +78659,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="E2724" t="s">
         <v>3143</v>
@@ -79636,7 +79636,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="B2782" t="s">
         <v>5612</v>
@@ -79645,7 +79645,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="E2782" t="s">
         <v>3141</v>
@@ -79653,16 +79653,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="B2783" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="E2783" t="s">
         <v>3143</v>
@@ -79670,10 +79670,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B2784" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -79687,10 +79687,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B2785" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -79704,10 +79704,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B2786" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -79721,10 +79721,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="B2787" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -79738,10 +79738,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="B2788" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -79755,10 +79755,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="B2789" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -79772,10 +79772,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B2790" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -79789,10 +79789,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="B2791" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -79806,10 +79806,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="B2792" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -79823,10 +79823,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="B2793" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -80775,7 +80775,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="B2849" t="s">
         <v>5659</v>
@@ -80784,7 +80784,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="E2849" t="s">
         <v>3143</v>
@@ -81090,7 +81090,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="E2867" t="s">
         <v>3143</v>
@@ -81268,7 +81268,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="B2878" t="s">
         <v>5696</v>
@@ -82781,7 +82781,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="B2967" t="s">
         <v>5777</v>
@@ -82790,7 +82790,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="E2967" t="s">
         <v>3143</v>
@@ -83827,7 +83827,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="E3028" t="s">
         <v>3143</v>
@@ -84532,7 +84532,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="B3070" t="s">
         <v>5874</v>
@@ -84541,7 +84541,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="E3070" t="s">
         <v>3143</v>
@@ -87618,7 +87618,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7268</v>
+        <v>7267</v>
       </c>
       <c r="E3251" t="s">
         <v>3143</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F45D6-EC8D-439F-9EC0-273393E02761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E782E-1995-4B3D-B90C-C3AE05454C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23534,10 +23534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.jeesite.modules.cms.web.CmsIndexController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2、新深蓝：skin-blue3、新浅蓝：skin-blue-light3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23547,6 +23543,10 @@
   </si>
   <si>
     <t>租户管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeesite.modules.cms.web.ArticleController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24293,13 +24293,13 @@
         <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -25838,7 +25838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -25895,7 +25895,7 @@
         <v>330</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7294</v>
+        <v>7297</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -26793,7 +26793,7 @@
         <v>226</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>7297</v>
+        <v>7296</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6144</v>
@@ -32257,7 +32257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
